--- a/Combinacion/Resultados_Primer_Parcial_Fisica_1_240.xlsx
+++ b/Combinacion/Resultados_Primer_Parcial_Fisica_1_240.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusto\OneDrive\Documentos\Cursos_UVM\Cuatrimestral\Fisica_1_BC\Combinacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7CFE54-C379-4A11-A49A-1E31AC86035F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09E5BD4-A930-4AA0-A3F3-FBC37C7FE9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8CF1007D-BFA5-46C2-8BC7-54F853DC7880}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{8CF1007D-BFA5-46C2-8BC7-54F853DC7880}"/>
   </bookViews>
   <sheets>
     <sheet name="Primer_Examen" sheetId="1" r:id="rId1"/>
     <sheet name="Primer_Examen_Concentrado" sheetId="2" r:id="rId2"/>
+    <sheet name="Análisis 1Parcial" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Primer_Examen_Concentrado!$B$1:$B$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Primer_Examen_Concentrado!$B$1:$B$65</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="195">
   <si>
     <t>Matrícula</t>
   </si>
@@ -583,6 +584,48 @@
   </si>
   <si>
     <t>No Env.</t>
+  </si>
+  <si>
+    <t>Calificaciones</t>
+  </si>
+  <si>
+    <t>Acreditación</t>
+  </si>
+  <si>
+    <t>Acredita</t>
+  </si>
+  <si>
+    <t>No acredita</t>
+  </si>
+  <si>
+    <t>6 -7</t>
+  </si>
+  <si>
+    <t>&lt; 6</t>
+  </si>
+  <si>
+    <t>7 - 8</t>
+  </si>
+  <si>
+    <t>8 - 9</t>
+  </si>
+  <si>
+    <t>9 -10</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
 </sst>
 </file>
@@ -609,7 +652,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -619,12 +662,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,7 +690,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -667,7 +704,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -677,16 +713,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -748,6 +806,1997 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Porcentaje</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-MX" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>s de acreditación</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-MX">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-C98D-40FE-8F14-AF66CB9BB259}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-C98D-40FE-8F14-AF66CB9BB259}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.2333333333333333E-2"/>
+                  <c:y val="-0.10487787984835237"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="none" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-MX"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-C98D-40FE-8F14-AF66CB9BB259}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.7153324584426947E-2"/>
+                  <c:y val="-8.7780694079906676E-4"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="none" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="0">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr" rtl="0">
+                    <a:defRPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-MX"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-C98D-40FE-8F14-AF66CB9BB259}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="none" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Análisis 1Parcial'!$D$2:$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Acredita</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>No acredita</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Análisis 1Parcial'!$E$2:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C98D-40FE-8F14-AF66CB9BB259}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              </a:rPr>
+              <a:t>Resultados Examen</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.2692038495188102E-2"/>
+          <c:y val="0.19486111111111112"/>
+          <c:w val="0.90286351706036749"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Análisis 1Parcial'!$P$2:$P$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>&lt; 6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6 -7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7 - 8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8 - 9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9 -10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Análisis 1Parcial'!$Q$2:$Q$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F737-4C18-91CD-E3BCF7987928}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="13"/>
+        <c:overlap val="-7"/>
+        <c:axId val="1924238816"/>
+        <c:axId val="1924237376"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1924238816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1924237376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1924237376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1924238816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECA57B27-3933-2F45-6556-14B1AFE2B0DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>138111</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Gráfico 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EB32A4E-D5E5-48EF-18A4-EBFB023F96FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2239,7 +4288,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G49">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2249,10 +4298,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B2B91C-01E5-4422-BE03-FAAEE490CD9B}">
-  <dimension ref="A1:R68"/>
+  <dimension ref="A1:R65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2290,22 +4339,22 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>170</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -2343,7 +4392,7 @@
       <c r="D2" t="s">
         <v>135</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="9" t="s">
         <v>136</v>
       </c>
       <c r="F2" s="1">
@@ -2352,17 +4401,17 @@
       <c r="G2" s="1">
         <v>0.82</v>
       </c>
-      <c r="H2" s="8">
-        <v>1</v>
-      </c>
-      <c r="I2" s="8" t="s">
+      <c r="H2" s="7">
+        <v>1</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="7">
         <v>1</v>
       </c>
       <c r="K2" s="1">
-        <f t="shared" ref="K2:K49" si="0">SUM(F2:J2)</f>
+        <f t="shared" ref="K2:K46" si="0">SUM(F2:J2)</f>
         <v>5.82</v>
       </c>
       <c r="L2" s="4">
@@ -2372,7 +4421,7 @@
         <v>6.5</v>
       </c>
       <c r="N2" s="4">
-        <f t="shared" ref="N2:N49" si="1">SUM(L2:M2)*0.5</f>
+        <f t="shared" ref="N2:N46" si="1">SUM(L2:M2)*0.5</f>
         <v>6.8875000000000002</v>
       </c>
       <c r="O2" s="4" t="s">
@@ -2382,11 +4431,11 @@
         <v>180</v>
       </c>
       <c r="Q2" s="1">
-        <f t="shared" ref="Q2:Q49" si="2">SUM(O2:P2)/2</f>
+        <f t="shared" ref="Q2:Q46" si="2">SUM(O2:P2)/2</f>
         <v>0</v>
       </c>
       <c r="R2" s="4">
-        <f t="shared" ref="R2:R49" si="3">N2*0.7+Q2*0.3</f>
+        <f t="shared" ref="R2:R46" si="3">N2*0.7+Q2*0.3</f>
         <v>4.82125</v>
       </c>
     </row>
@@ -2403,51 +4452,52 @@
       <c r="D3" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>180</v>
+      <c r="F3" s="1">
+        <v>1.5</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7">
+        <v>1</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>180</v>
+      <c r="J3" s="7">
+        <v>1</v>
       </c>
       <c r="K3" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="L3" s="4">
-        <v>0</v>
+        <f>(K3/8)*10</f>
+        <v>4.375</v>
       </c>
       <c r="M3" s="1">
         <v>7.5</v>
       </c>
       <c r="N3" s="4">
         <f t="shared" si="1"/>
-        <v>3.75</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>180</v>
+        <v>5.9375</v>
+      </c>
+      <c r="O3" s="4">
+        <v>6</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>180</v>
       </c>
       <c r="Q3" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R3" s="4">
         <f t="shared" si="3"/>
-        <v>2.625</v>
+        <v>5.0562500000000004</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -2463,7 +4513,7 @@
       <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="1">
@@ -2472,13 +4522,13 @@
       <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <v>0.75</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <v>1.3</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="7" t="s">
         <v>180</v>
       </c>
       <c r="K4" s="1">
@@ -2523,7 +4573,7 @@
       <c r="D5" t="s">
         <v>56</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="9" t="s">
         <v>82</v>
       </c>
       <c r="F5" s="1">
@@ -2532,18 +4582,18 @@
       <c r="G5" s="1">
         <v>0.75</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="J5" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="J5" s="8" t="s">
-        <v>180</v>
-      </c>
       <c r="K5" s="1">
         <f t="shared" si="0"/>
-        <v>3.35</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="L5" s="4">
         <v>4.1875</v>
@@ -2583,7 +4633,7 @@
       <c r="D6" t="s">
         <v>63</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="9" t="s">
         <v>64</v>
       </c>
       <c r="F6" s="1">
@@ -2592,13 +4642,13 @@
       <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" s="8">
-        <v>1</v>
-      </c>
-      <c r="I6" s="8">
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
         <v>1.4</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="7">
         <v>1</v>
       </c>
       <c r="K6" s="1">
@@ -2644,7 +4694,7 @@
       <c r="D7" t="s">
         <v>35</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="9" t="s">
         <v>36</v>
       </c>
       <c r="F7" s="1">
@@ -2653,13 +4703,13 @@
       <c r="G7" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="H7" s="8">
-        <v>1</v>
-      </c>
-      <c r="I7" s="8">
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="7">
         <v>1</v>
       </c>
       <c r="K7" s="1">
@@ -2704,7 +4754,7 @@
       <c r="D8" t="s">
         <v>49</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="9" t="s">
         <v>54</v>
       </c>
       <c r="F8" s="1">
@@ -2713,13 +4763,13 @@
       <c r="G8" s="1">
         <v>0.5</v>
       </c>
-      <c r="H8" s="8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="8" t="s">
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="7">
         <v>1</v>
       </c>
       <c r="K8" s="1">
@@ -2764,7 +4814,7 @@
       <c r="D9" t="s">
         <v>95</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="9" t="s">
         <v>96</v>
       </c>
       <c r="F9" s="1">
@@ -2773,13 +4823,13 @@
       <c r="G9" s="1">
         <v>0.4</v>
       </c>
-      <c r="H9" s="8">
-        <v>1</v>
-      </c>
-      <c r="I9" s="8">
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7">
         <v>0.7</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="7">
         <v>1</v>
       </c>
       <c r="K9" s="1">
@@ -2824,7 +4874,7 @@
       <c r="D10" t="s">
         <v>125</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -2833,13 +4883,13 @@
       <c r="G10" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="7">
         <v>1</v>
       </c>
       <c r="K10" s="1">
@@ -2884,7 +4934,7 @@
       <c r="D11" t="s">
         <v>153</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="9" t="s">
         <v>154</v>
       </c>
       <c r="F11" s="1">
@@ -2893,13 +4943,13 @@
       <c r="G11" s="1">
         <v>0.82</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <v>0.7</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="7">
         <v>1.2</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="7">
         <v>1</v>
       </c>
       <c r="K11" s="1">
@@ -2944,7 +4994,7 @@
       <c r="D12" t="s">
         <v>39</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F12" s="1">
@@ -2953,13 +5003,13 @@
       <c r="G12" s="1">
         <v>0.4</v>
       </c>
-      <c r="H12" s="8">
-        <v>1</v>
-      </c>
-      <c r="I12" s="8">
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
         <v>1.6</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="7">
         <v>1</v>
       </c>
       <c r="K12" s="1">
@@ -3004,7 +5054,7 @@
       <c r="D13" t="s">
         <v>91</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="9" t="s">
         <v>115</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -3013,13 +5063,13 @@
       <c r="G13" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="H13" s="8">
-        <v>1</v>
-      </c>
-      <c r="I13" s="8">
-        <v>1</v>
-      </c>
-      <c r="J13" s="8">
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1</v>
+      </c>
+      <c r="J13" s="7">
         <v>1</v>
       </c>
       <c r="K13" s="1">
@@ -3064,7 +5114,7 @@
       <c r="D14" t="s">
         <v>38</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="9" t="s">
         <v>57</v>
       </c>
       <c r="F14" s="1">
@@ -3073,13 +5123,13 @@
       <c r="G14" s="1">
         <v>0.75</v>
       </c>
-      <c r="H14" s="8">
-        <v>1</v>
-      </c>
-      <c r="I14" s="8">
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="7">
         <v>1</v>
       </c>
       <c r="K14" s="1">
@@ -3124,7 +5174,7 @@
       <c r="D15" t="s">
         <v>19</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="9" t="s">
         <v>20</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -3133,13 +5183,13 @@
       <c r="G15" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="H15" s="8">
-        <v>1</v>
-      </c>
-      <c r="I15" s="8" t="s">
+      <c r="H15" s="7">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="7" t="s">
         <v>180</v>
       </c>
       <c r="K15" s="1">
@@ -3184,7 +5234,7 @@
       <c r="D16" t="s">
         <v>15</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="9" t="s">
         <v>16</v>
       </c>
       <c r="F16" s="1">
@@ -3193,13 +5243,13 @@
       <c r="G16" s="1">
         <v>0.7</v>
       </c>
-      <c r="H16" s="8">
-        <v>1</v>
-      </c>
-      <c r="I16" s="8">
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
         <v>1.2</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="7">
         <v>1</v>
       </c>
       <c r="K16" s="1">
@@ -3244,7 +5294,7 @@
       <c r="D17" t="s">
         <v>141</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="9" t="s">
         <v>142</v>
       </c>
       <c r="F17" s="1">
@@ -3253,13 +5303,13 @@
       <c r="G17" s="1">
         <v>1</v>
       </c>
-      <c r="H17" s="8">
-        <v>1</v>
-      </c>
-      <c r="I17" s="8">
-        <v>1</v>
-      </c>
-      <c r="J17" s="8">
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1</v>
+      </c>
+      <c r="J17" s="7">
         <v>1</v>
       </c>
       <c r="K17" s="1">
@@ -3304,7 +5354,7 @@
       <c r="D18" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>88</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -3313,13 +5363,13 @@
       <c r="G18" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" s="7" t="s">
         <v>180</v>
       </c>
       <c r="K18" s="1">
@@ -3364,7 +5414,7 @@
       <c r="D19" t="s">
         <v>121</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="9" t="s">
         <v>122</v>
       </c>
       <c r="F19" s="1">
@@ -3373,13 +5423,13 @@
       <c r="G19" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="7">
         <v>0.7</v>
       </c>
-      <c r="I19" s="8">
-        <v>1</v>
-      </c>
-      <c r="J19" s="8" t="s">
+      <c r="I19" s="7">
+        <v>1</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>180</v>
       </c>
       <c r="K19" s="1">
@@ -3424,7 +5474,7 @@
       <c r="D20" t="s">
         <v>74</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="9" t="s">
         <v>75</v>
       </c>
       <c r="F20" s="1">
@@ -3433,13 +5483,13 @@
       <c r="G20" s="1">
         <v>0.95</v>
       </c>
-      <c r="H20" s="8">
-        <v>1</v>
-      </c>
-      <c r="I20" s="8">
+      <c r="H20" s="7">
+        <v>1</v>
+      </c>
+      <c r="I20" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="7">
         <v>1</v>
       </c>
       <c r="K20" s="1">
@@ -3484,7 +5534,7 @@
       <c r="D21" t="s">
         <v>91</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="9" t="s">
         <v>92</v>
       </c>
       <c r="F21" s="1">
@@ -3493,13 +5543,13 @@
       <c r="G21" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="H21" s="8">
-        <v>1</v>
-      </c>
-      <c r="I21" s="8">
+      <c r="H21" s="7">
+        <v>1</v>
+      </c>
+      <c r="I21" s="7">
         <v>0.1</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="7">
         <v>1</v>
       </c>
       <c r="K21" s="1">
@@ -3544,7 +5594,7 @@
       <c r="D22" t="s">
         <v>95</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="9" t="s">
         <v>165</v>
       </c>
       <c r="F22" s="1">
@@ -3553,13 +5603,13 @@
       <c r="G22" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="I22" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="7">
         <v>1</v>
       </c>
       <c r="K22" s="1">
@@ -3605,7 +5655,7 @@
       <c r="D23" t="s">
         <v>145</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="9" t="s">
         <v>146</v>
       </c>
       <c r="F23" s="1">
@@ -3614,13 +5664,13 @@
       <c r="G23" s="1">
         <v>1</v>
       </c>
-      <c r="H23" s="8">
-        <v>1</v>
-      </c>
-      <c r="I23" s="8">
+      <c r="H23" s="7">
+        <v>1</v>
+      </c>
+      <c r="I23" s="7">
         <v>1.5</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="7">
         <v>1</v>
       </c>
       <c r="K23" s="1">
@@ -3665,7 +5715,7 @@
       <c r="D24" t="s">
         <v>148</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="9" t="s">
         <v>146</v>
       </c>
       <c r="F24" s="1">
@@ -3674,13 +5724,13 @@
       <c r="G24" s="1">
         <v>1</v>
       </c>
-      <c r="H24" s="8">
-        <v>1</v>
-      </c>
-      <c r="I24" s="8">
-        <v>1</v>
-      </c>
-      <c r="J24" s="8" t="s">
+      <c r="H24" s="7">
+        <v>1</v>
+      </c>
+      <c r="I24" s="7">
+        <v>1</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>180</v>
       </c>
       <c r="K24" s="1">
@@ -3725,7 +5775,7 @@
       <c r="D25" t="s">
         <v>38</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="9" t="s">
         <v>138</v>
       </c>
       <c r="F25" s="1">
@@ -3734,13 +5784,13 @@
       <c r="G25" s="1">
         <v>1</v>
       </c>
-      <c r="H25" s="8">
-        <v>1</v>
-      </c>
-      <c r="I25" s="8">
+      <c r="H25" s="7">
+        <v>1</v>
+      </c>
+      <c r="I25" s="7">
         <v>1.8</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J25" s="7">
         <v>1</v>
       </c>
       <c r="K25" s="1">
@@ -3785,7 +5835,7 @@
       <c r="D26" t="s">
         <v>50</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="9" t="s">
         <v>51</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -3794,13 +5844,13 @@
       <c r="G26" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H26" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="I26" s="8" t="s">
+      <c r="I26" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="J26" s="8" t="s">
+      <c r="J26" s="7" t="s">
         <v>180</v>
       </c>
       <c r="K26" s="1">
@@ -3845,7 +5895,7 @@
       <c r="D27" t="s">
         <v>43</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F27" s="1">
@@ -3854,13 +5904,13 @@
       <c r="G27" s="1">
         <v>0.5</v>
       </c>
-      <c r="H27" s="8">
-        <v>1</v>
-      </c>
-      <c r="I27" s="8">
+      <c r="H27" s="7">
+        <v>1</v>
+      </c>
+      <c r="I27" s="7">
         <v>1.5</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J27" s="7">
         <v>1</v>
       </c>
       <c r="K27" s="1">
@@ -3894,137 +5944,140 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>20228319</v>
+        <v>20228925</v>
       </c>
       <c r="B28" t="s">
-        <v>111</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>180</v>
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="H28" s="7">
+        <v>1</v>
+      </c>
+      <c r="I28" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="J28" s="7">
+        <v>1</v>
       </c>
       <c r="K28" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.37</v>
       </c>
       <c r="L28" s="4">
-        <v>0</v>
+        <f>(K28/8)*10</f>
+        <v>9.2125000000000004</v>
+      </c>
+      <c r="M28" s="1">
+        <v>8</v>
       </c>
       <c r="N28" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O28" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="P28" s="4" t="s">
-        <v>180</v>
+        <v>8.6062499999999993</v>
+      </c>
+      <c r="O28" s="4">
+        <v>6</v>
+      </c>
+      <c r="P28" s="4">
+        <v>8</v>
       </c>
       <c r="Q28" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R28" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8.1243749999999988</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>20228925</v>
+        <v>20222131</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="C29" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" t="s">
-        <v>24</v>
+        <v>71</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="F29" s="1">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="G29" s="1">
-        <v>0.82</v>
-      </c>
-      <c r="H29" s="8">
-        <v>1</v>
-      </c>
-      <c r="I29" s="8">
-        <v>1.8</v>
-      </c>
-      <c r="J29" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="H29" s="7">
+        <v>1</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="J29" s="7">
         <v>1</v>
       </c>
       <c r="K29" s="1">
         <f t="shared" si="0"/>
-        <v>7.37</v>
+        <v>6.65</v>
       </c>
       <c r="L29" s="4">
-        <f>(K29/8)*10</f>
-        <v>9.2125000000000004</v>
+        <v>8.3125</v>
       </c>
       <c r="M29" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N29" s="4">
         <f t="shared" si="1"/>
-        <v>8.6062499999999993</v>
+        <v>8.65625</v>
       </c>
       <c r="O29" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P29" s="4">
         <v>8</v>
       </c>
       <c r="Q29" s="1">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="R29" s="4">
         <f t="shared" si="3"/>
-        <v>8.1243749999999988</v>
+        <v>8.3093749999999993</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>20222131</v>
+        <v>20250571</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="D30" t="s">
-        <v>71</v>
-      </c>
-      <c r="E30" t="s">
-        <v>72</v>
+        <v>26</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="F30" s="1">
         <v>3</v>
@@ -4032,89 +6085,89 @@
       <c r="G30" s="1">
         <v>0.75</v>
       </c>
-      <c r="H30" s="8">
-        <v>1</v>
-      </c>
-      <c r="I30" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="J30" s="8">
+      <c r="H30" s="7">
+        <v>1</v>
+      </c>
+      <c r="I30" s="7">
+        <v>1.55</v>
+      </c>
+      <c r="J30" s="7">
         <v>1</v>
       </c>
       <c r="K30" s="1">
         <f t="shared" si="0"/>
-        <v>6.65</v>
+        <v>7.3</v>
       </c>
       <c r="L30" s="4">
-        <v>8.3125</v>
+        <f>(K30/8)*10</f>
+        <v>9.125</v>
       </c>
       <c r="M30" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="N30" s="4">
+        <f t="shared" si="1"/>
+        <v>7.3125</v>
+      </c>
+      <c r="O30" s="4">
         <v>9</v>
       </c>
-      <c r="N30" s="4">
-        <f t="shared" si="1"/>
-        <v>8.65625</v>
-      </c>
-      <c r="O30" s="4">
-        <v>7</v>
-      </c>
       <c r="P30" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q30" s="1">
         <f t="shared" si="2"/>
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="R30" s="4">
         <f t="shared" si="3"/>
-        <v>8.3093749999999993</v>
+        <v>7.96875</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>20250571</v>
+        <v>340440309</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="D31" t="s">
         <v>26</v>
       </c>
-      <c r="E31" t="s">
-        <v>85</v>
+      <c r="E31" s="9" t="s">
+        <v>129</v>
       </c>
       <c r="F31" s="1">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="G31" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="H31" s="8">
-        <v>1</v>
-      </c>
-      <c r="I31" s="8">
-        <v>1.55</v>
-      </c>
-      <c r="J31" s="8">
+        <v>1</v>
+      </c>
+      <c r="H31" s="7">
+        <v>1</v>
+      </c>
+      <c r="I31" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="J31" s="7">
         <v>1</v>
       </c>
       <c r="K31" s="1">
         <f t="shared" si="0"/>
-        <v>7.3</v>
+        <v>7.35</v>
       </c>
       <c r="L31" s="4">
-        <f>(K31/8)*10</f>
-        <v>9.125</v>
+        <v>9.1875</v>
       </c>
       <c r="M31" s="1">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="N31" s="4">
         <f t="shared" si="1"/>
-        <v>7.3125</v>
+        <v>8.59375</v>
       </c>
       <c r="O31" s="4">
         <v>9</v>
@@ -4128,530 +6181,534 @@
       </c>
       <c r="R31" s="4">
         <f t="shared" si="3"/>
-        <v>7.96875</v>
+        <v>8.8656249999999996</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>340440309</v>
+        <v>20228570</v>
       </c>
       <c r="B32" t="s">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="D32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" t="s">
-        <v>129</v>
+        <v>67</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="F32" s="1">
-        <v>2.75</v>
-      </c>
-      <c r="G32" s="1">
-        <v>1</v>
-      </c>
-      <c r="H32" s="8">
-        <v>1</v>
-      </c>
-      <c r="I32" s="8">
-        <v>1.6</v>
-      </c>
-      <c r="J32" s="8">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H32" s="7">
+        <v>1</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>180</v>
       </c>
       <c r="K32" s="1">
         <f t="shared" si="0"/>
-        <v>7.35</v>
+        <v>4</v>
       </c>
       <c r="L32" s="4">
-        <v>9.1875</v>
+        <v>5</v>
       </c>
       <c r="M32" s="1">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="N32" s="4">
         <f t="shared" si="1"/>
-        <v>8.59375</v>
-      </c>
-      <c r="O32" s="4">
-        <v>9</v>
-      </c>
-      <c r="P32" s="4">
-        <v>10</v>
+        <v>6.75</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="Q32" s="1">
         <f t="shared" si="2"/>
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="R32" s="4">
         <f t="shared" si="3"/>
-        <v>8.8656249999999996</v>
+        <v>4.7249999999999996</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>20228570</v>
+        <v>20225414</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="D33" t="s">
-        <v>67</v>
-      </c>
-      <c r="E33" t="s">
-        <v>68</v>
+        <v>119</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="F33" s="1">
-        <v>3</v>
-      </c>
-      <c r="G33" s="1" t="s">
+        <v>2.6</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="H33" s="7">
+        <v>1</v>
+      </c>
+      <c r="I33" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="H33" s="8">
-        <v>1</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="J33" s="8" t="s">
-        <v>180</v>
+      <c r="J33" s="7">
+        <v>1</v>
       </c>
       <c r="K33" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5.3</v>
       </c>
       <c r="L33" s="4">
-        <v>5</v>
+        <v>6.625</v>
       </c>
       <c r="M33" s="1">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="N33" s="4">
         <f t="shared" si="1"/>
-        <v>6.75</v>
+        <v>7.0625</v>
       </c>
       <c r="O33" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="P33" s="4" t="s">
-        <v>180</v>
+      <c r="P33" s="4">
+        <v>8</v>
       </c>
       <c r="Q33" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R33" s="4">
         <f t="shared" si="3"/>
-        <v>4.7249999999999996</v>
+        <v>6.1437499999999998</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>20229017</v>
+        <v>20225946</v>
       </c>
       <c r="B34" t="s">
-        <v>116</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" s="1">
+        <v>3</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="H34" s="7">
+        <v>1</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="G34" s="1">
-        <v>1</v>
-      </c>
-      <c r="H34" s="8" t="s">
+      <c r="K34" s="1">
+        <f t="shared" si="0"/>
+        <v>6.65</v>
+      </c>
+      <c r="L34" s="4">
+        <v>8.3125</v>
+      </c>
+      <c r="M34" s="1">
+        <v>6</v>
+      </c>
+      <c r="N34" s="4">
+        <f t="shared" si="1"/>
+        <v>7.15625</v>
+      </c>
+      <c r="O34" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="P34" s="4">
+        <v>9</v>
+      </c>
+      <c r="Q34" s="4">
+        <f t="shared" si="2"/>
+        <v>7.75</v>
+      </c>
+      <c r="R34" s="4">
+        <f t="shared" si="3"/>
+        <v>7.3343749999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>20205043</v>
+      </c>
+      <c r="B35" t="s">
+        <v>155</v>
+      </c>
+      <c r="C35" t="s">
+        <v>156</v>
+      </c>
+      <c r="D35" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F35" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35" s="7">
+        <v>1</v>
+      </c>
+      <c r="I35" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="J35" s="7">
+        <v>1</v>
+      </c>
+      <c r="K35" s="1">
+        <f t="shared" si="0"/>
+        <v>7.05</v>
+      </c>
+      <c r="L35" s="4">
+        <v>8.8125</v>
+      </c>
+      <c r="M35" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="N35" s="4">
+        <f t="shared" si="1"/>
+        <v>8.15625</v>
+      </c>
+      <c r="O35" s="4">
+        <v>9</v>
+      </c>
+      <c r="P35" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q35" s="1">
+        <f t="shared" si="2"/>
+        <v>9.5</v>
+      </c>
+      <c r="R35" s="4">
+        <f t="shared" si="3"/>
+        <v>8.5593749999999993</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>340429212</v>
+      </c>
+      <c r="B36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F36" s="1">
+        <v>3</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+      <c r="H36" s="7">
+        <v>1</v>
+      </c>
+      <c r="I36" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="J36" s="7">
+        <v>1</v>
+      </c>
+      <c r="K36" s="1">
+        <f t="shared" si="0"/>
+        <v>7.3</v>
+      </c>
+      <c r="L36" s="4">
+        <v>9.125</v>
+      </c>
+      <c r="M36" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="N36" s="4">
+        <f t="shared" si="1"/>
+        <v>8.8125</v>
+      </c>
+      <c r="O36" s="4">
+        <v>9</v>
+      </c>
+      <c r="P36" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q36" s="1">
+        <f t="shared" si="2"/>
+        <v>9.5</v>
+      </c>
+      <c r="R36" s="4">
+        <f t="shared" si="3"/>
+        <v>9.0187499999999989</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>20201915</v>
+      </c>
+      <c r="B37" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" t="s">
+        <v>131</v>
+      </c>
+      <c r="D37" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F37" s="1">
+        <v>3</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="H37" s="7">
+        <v>1</v>
+      </c>
+      <c r="I37" s="7">
+        <v>1</v>
+      </c>
+      <c r="J37" s="7">
+        <v>1</v>
+      </c>
+      <c r="K37" s="1">
+        <f t="shared" si="0"/>
+        <v>6.75</v>
+      </c>
+      <c r="L37" s="4">
+        <v>8.4375</v>
+      </c>
+      <c r="M37" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="N37" s="4">
+        <f t="shared" si="1"/>
+        <v>8.96875</v>
+      </c>
+      <c r="O37" s="4">
+        <v>9</v>
+      </c>
+      <c r="P37" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="I34" s="8" t="s">
+      <c r="Q37" s="1">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+      <c r="R37" s="4">
+        <f t="shared" si="3"/>
+        <v>7.6281249999999989</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>20218389</v>
+      </c>
+      <c r="B38" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="J34" s="8" t="s">
+      <c r="G38" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="K34" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L34" s="4">
-        <v>1.25</v>
-      </c>
-      <c r="N34" s="4">
-        <f t="shared" si="1"/>
-        <v>0.625</v>
-      </c>
-      <c r="O34" s="4" t="s">
+      <c r="H38" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="P34" s="4" t="s">
+      <c r="I38" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="Q34" s="1">
+      <c r="J38" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K38" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="4">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <v>9</v>
+      </c>
+      <c r="N38" s="4">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q38" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R34" s="4">
+      <c r="R38" s="4">
         <f t="shared" si="3"/>
-        <v>0.4375</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>20225414</v>
-      </c>
-      <c r="B35" t="s">
-        <v>118</v>
-      </c>
-      <c r="C35" t="s">
-        <v>95</v>
-      </c>
-      <c r="D35" t="s">
-        <v>119</v>
-      </c>
-      <c r="E35" t="s">
-        <v>117</v>
-      </c>
-      <c r="F35" s="1">
-        <v>2.6</v>
-      </c>
-      <c r="G35" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="H35" s="8">
-        <v>1</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="J35" s="8">
-        <v>1</v>
-      </c>
-      <c r="K35" s="1">
-        <f t="shared" si="0"/>
-        <v>5.3</v>
-      </c>
-      <c r="L35" s="4">
-        <v>6.625</v>
-      </c>
-      <c r="M35" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="N35" s="4">
-        <f t="shared" si="1"/>
-        <v>7.0625</v>
-      </c>
-      <c r="O35" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="P35" s="4">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>20228496</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="Q35" s="1">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="R35" s="4">
-        <f t="shared" si="3"/>
-        <v>6.1437499999999998</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>20225946</v>
-      </c>
-      <c r="B36" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E36" t="s">
-        <v>60</v>
-      </c>
-      <c r="F36" s="1">
-        <v>3</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="H36" s="8">
-        <v>1</v>
-      </c>
-      <c r="I36" s="8">
+      <c r="F39" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+      <c r="H39" s="7">
+        <v>1</v>
+      </c>
+      <c r="I39" s="7">
         <v>1.7</v>
       </c>
-      <c r="J36" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="K36" s="1">
-        <f t="shared" si="0"/>
-        <v>6.65</v>
-      </c>
-      <c r="L36" s="4">
-        <v>8.3125</v>
-      </c>
-      <c r="M36" s="1">
-        <v>6</v>
-      </c>
-      <c r="N36" s="4">
-        <f t="shared" si="1"/>
-        <v>7.15625</v>
-      </c>
-      <c r="O36" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="P36" s="4">
+      <c r="J39" s="7">
+        <v>1</v>
+      </c>
+      <c r="K39" s="1">
+        <f t="shared" si="0"/>
+        <v>7.45</v>
+      </c>
+      <c r="L39" s="4">
+        <v>9.3125</v>
+      </c>
+      <c r="M39" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="N39" s="4">
+        <f t="shared" si="1"/>
+        <v>8.90625</v>
+      </c>
+      <c r="O39" s="4">
         <v>9</v>
       </c>
-      <c r="Q36" s="1">
-        <f t="shared" si="2"/>
-        <v>4.5</v>
-      </c>
-      <c r="R36" s="4">
-        <f t="shared" si="3"/>
-        <v>6.3593749999999991</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>20205043</v>
-      </c>
-      <c r="B37" t="s">
-        <v>155</v>
-      </c>
-      <c r="C37" t="s">
-        <v>156</v>
-      </c>
-      <c r="D37" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" t="s">
-        <v>157</v>
-      </c>
-      <c r="F37" s="1">
-        <v>2.75</v>
-      </c>
-      <c r="G37" s="1">
-        <v>1</v>
-      </c>
-      <c r="H37" s="8">
-        <v>1</v>
-      </c>
-      <c r="I37" s="8">
-        <v>1.3</v>
-      </c>
-      <c r="J37" s="8">
-        <v>1</v>
-      </c>
-      <c r="K37" s="1">
-        <f t="shared" si="0"/>
-        <v>7.05</v>
-      </c>
-      <c r="L37" s="4">
-        <v>8.8125</v>
-      </c>
-      <c r="M37" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="N37" s="4">
-        <f t="shared" si="1"/>
-        <v>8.15625</v>
-      </c>
-      <c r="O37" s="4">
-        <v>9</v>
-      </c>
-      <c r="P37" s="4">
+      <c r="P39" s="4">
         <v>10</v>
       </c>
-      <c r="Q37" s="1">
+      <c r="Q39" s="1">
         <f t="shared" si="2"/>
         <v>9.5</v>
       </c>
-      <c r="R37" s="4">
-        <f t="shared" si="3"/>
-        <v>8.5593749999999993</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>340429212</v>
-      </c>
-      <c r="B38" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" t="s">
-        <v>78</v>
-      </c>
-      <c r="E38" t="s">
-        <v>79</v>
-      </c>
-      <c r="F38" s="1">
-        <v>3</v>
-      </c>
-      <c r="G38" s="1">
-        <v>1</v>
-      </c>
-      <c r="H38" s="8">
-        <v>1</v>
-      </c>
-      <c r="I38" s="8">
-        <v>1.3</v>
-      </c>
-      <c r="J38" s="8">
-        <v>1</v>
-      </c>
-      <c r="K38" s="1">
-        <f t="shared" si="0"/>
-        <v>7.3</v>
-      </c>
-      <c r="L38" s="4">
-        <v>9.125</v>
-      </c>
-      <c r="M38" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="N38" s="4">
-        <f t="shared" si="1"/>
-        <v>8.8125</v>
-      </c>
-      <c r="O38" s="4">
-        <v>9</v>
-      </c>
-      <c r="P38" s="4">
-        <v>10</v>
-      </c>
-      <c r="Q38" s="1">
-        <f t="shared" si="2"/>
-        <v>9.5</v>
-      </c>
-      <c r="R38" s="4">
-        <f t="shared" si="3"/>
-        <v>9.0187499999999989</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>20201915</v>
-      </c>
-      <c r="B39" t="s">
-        <v>130</v>
-      </c>
-      <c r="C39" t="s">
-        <v>131</v>
-      </c>
-      <c r="D39" t="s">
-        <v>67</v>
-      </c>
-      <c r="E39" t="s">
-        <v>132</v>
-      </c>
-      <c r="F39" s="1">
-        <v>3</v>
-      </c>
-      <c r="G39" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="H39" s="8">
-        <v>1</v>
-      </c>
-      <c r="I39" s="8">
-        <v>1</v>
-      </c>
-      <c r="J39" s="8">
-        <v>1</v>
-      </c>
-      <c r="K39" s="1">
-        <f t="shared" si="0"/>
-        <v>6.75</v>
-      </c>
-      <c r="L39" s="4">
-        <v>8.4375</v>
-      </c>
-      <c r="M39" s="1">
-        <v>9.5</v>
-      </c>
-      <c r="N39" s="4">
-        <f t="shared" si="1"/>
-        <v>8.96875</v>
-      </c>
-      <c r="O39" s="4">
-        <v>9</v>
-      </c>
-      <c r="P39" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q39" s="1">
-        <f t="shared" si="2"/>
-        <v>4.5</v>
-      </c>
       <c r="R39" s="4">
         <f t="shared" si="3"/>
-        <v>7.6281249999999989</v>
+        <v>9.0843749999999996</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>20218389</v>
+        <v>20226942</v>
       </c>
       <c r="B40" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="C40" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="D40" t="s">
-        <v>121</v>
-      </c>
-      <c r="E40" t="s">
-        <v>150</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="J40" s="8" t="s">
-        <v>180</v>
+        <v>67</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F40" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="I40" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="J40" s="7">
+        <v>1</v>
       </c>
       <c r="K40" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L40" s="4">
-        <v>0</v>
+        <f>(K40/8)*10</f>
+        <v>7.5</v>
       </c>
       <c r="M40" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N40" s="4">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>6.25</v>
       </c>
       <c r="O40" s="4" t="s">
         <v>180</v>
@@ -4665,53 +6722,53 @@
       </c>
       <c r="R40" s="4">
         <f t="shared" si="3"/>
-        <v>3.15</v>
+        <v>4.375</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>20228496</v>
+        <v>20225439</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>161</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="F41" s="1">
+        <v>3</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+      <c r="H41" s="7">
+        <v>1</v>
+      </c>
+      <c r="I41" s="7">
+        <v>2</v>
+      </c>
+      <c r="J41" s="7">
+        <v>1</v>
+      </c>
+      <c r="K41" s="1">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F41" s="1">
-        <v>2.75</v>
-      </c>
-      <c r="G41" s="1">
-        <v>1</v>
-      </c>
-      <c r="H41" s="8">
-        <v>1</v>
-      </c>
-      <c r="I41" s="8">
-        <v>1.7</v>
-      </c>
-      <c r="J41" s="8">
-        <v>1</v>
-      </c>
-      <c r="K41" s="1">
-        <f t="shared" si="0"/>
-        <v>7.45</v>
-      </c>
       <c r="L41" s="4">
-        <v>9.3125</v>
+        <v>10</v>
       </c>
       <c r="M41" s="1">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="N41" s="4">
         <f t="shared" si="1"/>
-        <v>8.90625</v>
+        <v>9</v>
       </c>
       <c r="O41" s="4">
         <v>9</v>
@@ -4725,24 +6782,24 @@
       </c>
       <c r="R41" s="4">
         <f t="shared" si="3"/>
-        <v>9.0843749999999996</v>
+        <v>9.15</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>830175287</v>
+        <v>20230085</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>47</v>
+        <v>25</v>
+      </c>
+      <c r="C42" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>180</v>
@@ -4750,85 +6807,88 @@
       <c r="G42" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="H42" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="J42" s="8" t="s">
-        <v>180</v>
+      <c r="H42" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="I42" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="J42" s="7">
+        <v>1</v>
       </c>
       <c r="K42" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="L42" s="4">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="M42" s="1">
+        <v>7.5</v>
       </c>
       <c r="N42" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O42" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="P42" s="4" t="s">
-        <v>180</v>
+        <v>5.75</v>
+      </c>
+      <c r="O42" s="4">
+        <v>8</v>
+      </c>
+      <c r="P42" s="4">
+        <v>9</v>
       </c>
       <c r="Q42" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="R42" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6.5749999999999993</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>20226942</v>
+        <v>20228142</v>
       </c>
       <c r="B43" t="s">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="C43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D43" t="s">
         <v>102</v>
       </c>
-      <c r="D43" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" t="s">
-        <v>103</v>
+      <c r="E43" s="9" t="s">
+        <v>160</v>
       </c>
       <c r="F43" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="G43" s="1">
-        <v>1</v>
-      </c>
-      <c r="H43" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I43" s="8">
-        <v>0.7</v>
-      </c>
-      <c r="J43" s="8">
+        <v>2</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H43" s="7">
+        <v>1</v>
+      </c>
+      <c r="I43" s="7">
+        <v>1</v>
+      </c>
+      <c r="J43" s="7">
         <v>1</v>
       </c>
       <c r="K43" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L43" s="4">
-        <v>5.625</v>
+        <v>6.25</v>
       </c>
       <c r="M43" s="1">
         <v>5</v>
       </c>
       <c r="N43" s="4">
         <f t="shared" si="1"/>
-        <v>5.3125</v>
+        <v>5.625</v>
       </c>
       <c r="O43" s="4" t="s">
         <v>180</v>
@@ -4842,59 +6902,59 @@
       </c>
       <c r="R43" s="4">
         <f t="shared" si="3"/>
-        <v>3.7187499999999996</v>
+        <v>3.9374999999999996</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>20225439</v>
+        <v>20245173</v>
       </c>
       <c r="B44" t="s">
-        <v>161</v>
+        <v>97</v>
       </c>
       <c r="C44" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="D44" t="s">
-        <v>49</v>
-      </c>
-      <c r="E44" t="s">
-        <v>162</v>
+        <v>99</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="F44" s="1">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="G44" s="1">
-        <v>1</v>
-      </c>
-      <c r="H44" s="8">
-        <v>1</v>
-      </c>
-      <c r="I44" s="8">
-        <v>2</v>
-      </c>
-      <c r="J44" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="H44" s="7">
+        <v>1</v>
+      </c>
+      <c r="I44" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="J44" s="7">
         <v>1</v>
       </c>
       <c r="K44" s="1">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>6.9</v>
       </c>
       <c r="L44" s="4">
+        <v>8.625</v>
+      </c>
+      <c r="M44" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="N44" s="4">
+        <f t="shared" si="1"/>
+        <v>8.5625</v>
+      </c>
+      <c r="O44" s="4">
         <v>10</v>
       </c>
-      <c r="M44" s="1">
-        <v>8</v>
-      </c>
-      <c r="N44" s="4">
-        <f t="shared" si="1"/>
+      <c r="P44" s="4">
         <v>9</v>
-      </c>
-      <c r="O44" s="4">
-        <v>9</v>
-      </c>
-      <c r="P44" s="4">
-        <v>10</v>
       </c>
       <c r="Q44" s="1">
         <f t="shared" si="2"/>
@@ -4902,341 +6962,986 @@
       </c>
       <c r="R44" s="4">
         <f t="shared" si="3"/>
-        <v>9.15</v>
+        <v>8.84375</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>20230085</v>
+        <v>20227614</v>
       </c>
       <c r="B45" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="C45" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45" t="s">
         <v>26</v>
       </c>
-      <c r="D45" t="s">
-        <v>27</v>
-      </c>
-      <c r="E45" t="s">
-        <v>28</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="H45" s="8">
-        <v>0.7</v>
-      </c>
-      <c r="I45" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="J45" s="8">
+      <c r="E45" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F45" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1</v>
+      </c>
+      <c r="H45" s="7">
+        <v>1</v>
+      </c>
+      <c r="I45" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="J45" s="7">
         <v>1</v>
       </c>
       <c r="K45" s="1">
         <f t="shared" si="0"/>
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="L45" s="4">
-        <v>4</v>
+        <v>8.75</v>
       </c>
       <c r="M45" s="1">
         <v>7.5</v>
       </c>
       <c r="N45" s="4">
         <f t="shared" si="1"/>
-        <v>5.75</v>
+        <v>8.125</v>
       </c>
       <c r="O45" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P45" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q45" s="1">
         <f t="shared" si="2"/>
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="R45" s="4">
         <f t="shared" si="3"/>
-        <v>6.5749999999999993</v>
+        <v>8.5374999999999996</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>20228142</v>
+        <v>20231626</v>
       </c>
       <c r="B46" t="s">
-        <v>158</v>
+        <v>29</v>
       </c>
       <c r="C46" t="s">
-        <v>159</v>
+        <v>30</v>
       </c>
       <c r="D46" t="s">
-        <v>102</v>
-      </c>
-      <c r="E46" t="s">
-        <v>160</v>
+        <v>31</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="F46" s="1">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="H46" s="8">
-        <v>1</v>
-      </c>
-      <c r="I46" s="8">
-        <v>1</v>
-      </c>
-      <c r="J46" s="8">
+      <c r="H46" s="7">
+        <v>1</v>
+      </c>
+      <c r="I46" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="J46" s="7">
         <v>1</v>
       </c>
       <c r="K46" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6.1</v>
       </c>
       <c r="L46" s="4">
-        <v>6.25</v>
+        <v>7.625</v>
       </c>
       <c r="M46" s="1">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="N46" s="4">
         <f t="shared" si="1"/>
-        <v>5.625</v>
-      </c>
-      <c r="O46" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="P46" s="4" t="s">
-        <v>180</v>
+        <v>7.5625</v>
+      </c>
+      <c r="O46" s="4">
+        <v>9</v>
+      </c>
+      <c r="P46" s="4">
+        <v>9</v>
       </c>
       <c r="Q46" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R46" s="4">
         <f t="shared" si="3"/>
-        <v>3.9374999999999996</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>20245173</v>
-      </c>
-      <c r="B47" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" t="s">
-        <v>98</v>
-      </c>
-      <c r="D47" t="s">
-        <v>99</v>
-      </c>
-      <c r="E47" t="s">
-        <v>100</v>
-      </c>
-      <c r="F47" s="1">
-        <v>2.75</v>
-      </c>
-      <c r="G47" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="H47" s="8">
-        <v>1</v>
-      </c>
-      <c r="I47" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="J47" s="8">
-        <v>1</v>
-      </c>
-      <c r="K47" s="1">
-        <f t="shared" si="0"/>
-        <v>6.9</v>
-      </c>
-      <c r="L47" s="4">
-        <v>8.625</v>
-      </c>
-      <c r="M47" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="N47" s="4">
-        <f t="shared" si="1"/>
-        <v>8.5625</v>
-      </c>
-      <c r="O47" s="4">
-        <v>10</v>
-      </c>
-      <c r="P47" s="4">
-        <v>9</v>
-      </c>
-      <c r="Q47" s="1">
-        <f t="shared" si="2"/>
-        <v>9.5</v>
-      </c>
-      <c r="R47" s="4">
-        <f t="shared" si="3"/>
-        <v>8.84375</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>20227614</v>
-      </c>
-      <c r="B48" t="s">
-        <v>108</v>
-      </c>
-      <c r="C48" t="s">
-        <v>109</v>
-      </c>
-      <c r="D48" t="s">
-        <v>26</v>
-      </c>
-      <c r="E48" t="s">
-        <v>110</v>
-      </c>
-      <c r="F48" s="1">
-        <v>2.6</v>
-      </c>
-      <c r="G48" s="1">
-        <v>1</v>
-      </c>
-      <c r="H48" s="8">
-        <v>1</v>
-      </c>
-      <c r="I48" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="J48" s="8">
-        <v>1</v>
-      </c>
-      <c r="K48" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="L48" s="4">
-        <v>8.75</v>
-      </c>
-      <c r="M48" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="N48" s="4">
-        <f t="shared" si="1"/>
-        <v>8.125</v>
-      </c>
-      <c r="O48" s="4">
-        <v>9</v>
-      </c>
-      <c r="P48" s="4">
-        <v>10</v>
-      </c>
-      <c r="Q48" s="1">
-        <f t="shared" si="2"/>
-        <v>9.5</v>
-      </c>
-      <c r="R48" s="4">
-        <f t="shared" si="3"/>
-        <v>8.5374999999999996</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>20231626</v>
-      </c>
-      <c r="B49" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" t="s">
-        <v>30</v>
-      </c>
-      <c r="D49" t="s">
-        <v>31</v>
-      </c>
-      <c r="E49" t="s">
-        <v>32</v>
-      </c>
-      <c r="F49" s="1">
-        <v>2.6</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="H49" s="8">
-        <v>1</v>
-      </c>
-      <c r="I49" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="J49" s="8">
-        <v>1</v>
-      </c>
-      <c r="K49" s="1">
-        <f t="shared" si="0"/>
-        <v>6.1</v>
-      </c>
-      <c r="L49" s="4">
-        <v>7.625</v>
-      </c>
-      <c r="M49" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="N49" s="4">
-        <f t="shared" si="1"/>
-        <v>7.5625</v>
-      </c>
-      <c r="O49" s="4">
-        <v>9</v>
-      </c>
-      <c r="P49" s="4">
-        <v>9</v>
-      </c>
-      <c r="Q49" s="1">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="R49" s="4">
-        <f t="shared" si="3"/>
         <v>7.9937499999999986</v>
       </c>
     </row>
-    <row r="66" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O66" s="9"/>
-    </row>
-    <row r="67" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O67" s="9"/>
-    </row>
-    <row r="68" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O68" s="9"/>
+    <row r="63" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O63" s="8"/>
+    </row>
+    <row r="64" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O64" s="8"/>
+    </row>
+    <row r="65" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O65" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B68" xr:uid="{80B2B91C-01E5-4422-BE03-FAAEE490CD9B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:R49">
-    <sortCondition ref="B2:B49"/>
+  <autoFilter ref="B1:B65" xr:uid="{80B2B91C-01E5-4422-BE03-FAAEE490CD9B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:R46">
+    <sortCondition ref="B2:B46"/>
   </sortState>
-  <conditionalFormatting sqref="K2:K49">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="K2:K46">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="between">
       <formula>3</formula>
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M11 L2:L49 N2:R49 M13:M30 M32 M34:M49">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="lessThan">
+  <conditionalFormatting sqref="M2:M11 L2:L46 N2:R46 M13:M29 M31 M33:M46">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="lessThan">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94DD4EC1-9D3A-41FD-95BA-E95F6BD0E5C0}">
+  <dimension ref="A1:Q46"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="11.42578125" style="1"/>
+    <col min="14" max="14" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>4.82125</v>
+      </c>
+      <c r="B2" s="1">
+        <f>IF(A2&lt;6,1, 2)</f>
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2">
+        <f>COUNTIF(B2:B46,"=2")</f>
+        <v>30</v>
+      </c>
+      <c r="M2" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="N2" s="1" t="str">
+        <f>IF(AND(M2&gt;=6,M2&lt;7),"B",IF(AND(M2&gt;=7,M2&lt;8),"C",IF(AND(M2&gt;=8,M2&lt;9),"D",IF(AND(M2&gt;=9,M2&lt;=10),"E","A"))))</f>
+        <v>B</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>COUNTIF(N2:N46,"=A")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>5.0562500000000004</v>
+      </c>
+      <c r="B3" s="1">
+        <f t="shared" ref="B3:B46" si="0">IF(A3&lt;6,1, 2)</f>
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3">
+        <f>COUNTIF(B2:B46,"=1")</f>
+        <v>15</v>
+      </c>
+      <c r="M3" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="N3" s="1" t="str">
+        <f t="shared" ref="N3:N46" si="1">IF(AND(M3&gt;=6,M3&lt;7),"B",IF(AND(M3&gt;=7,M3&lt;8),"C",IF(AND(M3&gt;=8,M3&lt;9),"D",IF(AND(M3&gt;=9,M3&lt;=10),"E","A"))))</f>
+        <v>C</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q3" s="1">
+        <f>COUNTIF(N2:N46,"=B")</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>7.8624999999999989</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M4" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="N4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q4" s="1">
+        <f>COUNTIF(N2:N46,"=C")</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4.0906250000000002</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="N5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q5" s="1">
+        <f>COUNTIF(N2:N46,"=D")</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>4.9437499999999996</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>6</v>
+      </c>
+      <c r="N6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q6" s="1">
+        <f>COUNTIF(N2:N46,"=E")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>7.9937499999999986</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M7" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="N7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>5.4031249999999993</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>10</v>
+      </c>
+      <c r="N8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>E</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>6.8593749999999991</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M9" s="1">
+        <v>5</v>
+      </c>
+      <c r="N9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>5.5187499999999998</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>5</v>
+      </c>
+      <c r="N10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>6.89</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M11" s="1">
+        <v>7</v>
+      </c>
+      <c r="N11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>7.7874999999999996</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M12" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="N12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>6.4124999999999996</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M13" s="1">
+        <v>6</v>
+      </c>
+      <c r="N13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>7.078125</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M14" s="1">
+        <v>8</v>
+      </c>
+      <c r="N14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>2.7124999999999999</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M15" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="N15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>7.859375</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M16" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="N16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>5.3374999999999995</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M17" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="N17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>2.9749999999999996</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M18" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="N18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>7.2062499999999989</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M19" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="N19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>7.0343749999999998</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M20" s="1">
+        <v>7</v>
+      </c>
+      <c r="N20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>6.3468749999999998</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M21" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="N21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>6.2906249999999995</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M22" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="N22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>8.7562499999999996</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M23" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="N23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>5.4906249999999996</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M24" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="N24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>8.515625</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M25" s="1">
+        <v>8</v>
+      </c>
+      <c r="N25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>2.9749999999999996</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M26" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="N26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>8.7125000000000004</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M27" s="1">
+        <v>8</v>
+      </c>
+      <c r="N27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>8.1243749999999988</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M28" s="1">
+        <v>8</v>
+      </c>
+      <c r="N28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>8.3093749999999993</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M29" s="1">
+        <v>9</v>
+      </c>
+      <c r="N29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>E</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>7.96875</v>
+      </c>
+      <c r="B30" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M30" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="N30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>8.8656249999999996</v>
+      </c>
+      <c r="B31" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M31" s="1">
+        <v>8</v>
+      </c>
+      <c r="N31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>4.7249999999999996</v>
+      </c>
+      <c r="B32" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M32" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="N32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>6.1437499999999998</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M33" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="N33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>7.3343749999999996</v>
+      </c>
+      <c r="B34" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M34" s="1">
+        <v>6</v>
+      </c>
+      <c r="N34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>8.5593749999999993</v>
+      </c>
+      <c r="B35" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M35" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="N35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>9.0187499999999989</v>
+      </c>
+      <c r="B36" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M36" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="N36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>7.6281249999999989</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M37" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="N37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>E</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>3.15</v>
+      </c>
+      <c r="B38" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M38" s="1">
+        <v>9</v>
+      </c>
+      <c r="N38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>E</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>9.0843749999999996</v>
+      </c>
+      <c r="B39" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M39" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="N39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>4.375</v>
+      </c>
+      <c r="B40" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M40" s="1">
+        <v>5</v>
+      </c>
+      <c r="N40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>9.15</v>
+      </c>
+      <c r="B41" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M41" s="1">
+        <v>8</v>
+      </c>
+      <c r="N41" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>6.5749999999999993</v>
+      </c>
+      <c r="B42" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M42" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="N42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>3.9374999999999996</v>
+      </c>
+      <c r="B43" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M43" s="1">
+        <v>5</v>
+      </c>
+      <c r="N43" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>8.84375</v>
+      </c>
+      <c r="B44" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M44" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="N44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>8.5374999999999996</v>
+      </c>
+      <c r="B45" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M45" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="N45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>7.9937499999999986</v>
+      </c>
+      <c r="B46" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M46" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="N46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="N2:N46">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"""B"""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"""B"""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>